--- a/downloads/format_oscrms_amt.xlsx
+++ b/downloads/format_oscrms_amt.xlsx
@@ -211,14 +211,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,581 +542,576 @@
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1124,6 +1119,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
